--- a/data/outputs/OR/10.xlsx
+++ b/data/outputs/OR/10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ95"/>
+  <dimension ref="A1:BR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1347,6 +1354,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1765,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1972,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2175,6 +2186,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2396,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2470,7 +2483,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Pavanello, Renato/0000-0002-3883-1411; Vicente, William M/0000-0002-6001-8806; </t>
+          <t>Pavanello, Renato/0000-0002-3883-1411; Vicente, William M/0000-0002-6001-8806;</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2601,6 +2614,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2814,6 +2828,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3038,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3224,6 +3240,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3441,6 +3458,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3650,6 +3668,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3855,6 +3874,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4072,6 +4092,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4285,6 +4306,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4490,6 +4512,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4691,6 +4714,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>2733845</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4900,6 +4928,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5113,6 +5142,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5330,6 +5360,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5535,6 +5566,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5736,6 +5768,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5953,6 +5986,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6162,6 +6196,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6371,6 +6406,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6572,6 +6608,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6781,6 +6818,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6990,6 +7028,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7207,6 +7246,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>2868709</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7420,6 +7464,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7506,7 +7551,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Tyan, Maxim B/0000-0001-5076-7689; </t>
+          <t>Tyan, Maxim B/0000-0001-5076-7689;</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -7637,6 +7682,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7846,6 +7892,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8063,6 +8110,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8268,6 +8316,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8473,6 +8522,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8686,6 +8736,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8903,6 +8954,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9112,6 +9164,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9325,6 +9378,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9534,6 +9588,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9743,6 +9798,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9944,6 +10000,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10153,6 +10210,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10358,6 +10416,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10575,6 +10634,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10661,7 +10721,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Shin, Jaekwan/0000-0001-8059-2357; </t>
+          <t>Shin, Jaekwan/0000-0001-8059-2357;</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr"/>
@@ -10784,6 +10844,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10993,6 +11054,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11194,6 +11256,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11411,6 +11474,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11628,6 +11692,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11829,6 +11894,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12050,6 +12116,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12251,6 +12318,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12428,6 +12496,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12641,6 +12710,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12854,6 +12924,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13063,6 +13134,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13276,6 +13348,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13493,6 +13566,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13702,6 +13776,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13907,6 +13982,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14116,6 +14192,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14329,6 +14406,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14546,6 +14624,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14755,6 +14834,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14972,6 +15052,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15173,6 +15254,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>3390040</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15382,6 +15468,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15591,6 +15678,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15800,6 +15888,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16009,6 +16098,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16095,7 +16185,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Yilmaz, Ebru/0000-0002-7382-4081; </t>
+          <t>Yilmaz, Ebru/0000-0002-7382-4081;</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -16226,6 +16316,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16439,6 +16530,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16660,6 +16752,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16861,6 +16954,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17074,6 +17168,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17283,6 +17378,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17496,6 +17592,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17705,6 +17802,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17906,6 +18004,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18107,6 +18206,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18316,6 +18416,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18517,6 +18618,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18722,6 +18824,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18927,6 +19030,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19124,6 +19228,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19329,6 +19434,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19530,6 +19636,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19727,6 +19834,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19940,6 +20048,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20153,6 +20262,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20366,6 +20476,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
